--- a/Sales Data including Prices for c#.xlsx
+++ b/Sales Data including Prices for c#.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sales Data and Prices" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -117,9 +117,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Sales 2014</t>
-  </si>
-  <si>
     <t>Hot shoe shuffle</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t xml:space="preserve">Shenandoah </t>
+  </si>
+  <si>
+    <t>Sales 2015</t>
   </si>
 </sst>
 </file>
@@ -175,7 +175,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,15 +199,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -222,7 +231,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -230,18 +239,357 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -261,16 +609,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -294,7 +642,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10772775" y="2857500"/>
+          <a:off x="971550" y="5543550"/>
           <a:ext cx="4229100" cy="1657350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -607,7 +955,7 @@
   <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+      <selection activeCell="V24" sqref="U24:V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,1408 +969,1420 @@
     <col min="26" max="26" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    <row r="1" spans="1:27" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="E2" s="1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="E2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:27" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="25" t="s">
         <v>32</v>
       </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="10"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="22">
         <f>SUM(AA12,X5,U6)</f>
         <v>35</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="7">
         <v>21</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="7">
         <v>20</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="7">
         <v>10</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="7">
         <v>8</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="7">
         <v>3</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="7">
         <v>6</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="7">
         <v>20</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="7">
         <v>17</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="7">
         <v>6</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="7">
         <v>10</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="7">
         <v>15</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="11">
         <v>15</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="U4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA4" s="1" t="s">
+      <c r="Z4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA4" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="14">
         <f>SUM(U6,X6,AA12)</f>
         <v>35</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="7">
         <v>12</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="7">
         <v>11</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="7">
         <v>6</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="7">
         <v>5</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="7">
         <v>2</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="7">
         <v>4</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="7">
         <v>11</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="7">
         <v>10</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="7">
         <v>4</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="7">
         <v>6</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="7">
         <v>8</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="11">
         <v>8</v>
       </c>
-      <c r="T5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U5" s="2">
+      <c r="T5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" s="8">
         <v>20</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="8">
         <v>5</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="Z5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5" s="8">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="14">
         <f>SUM(U6,X7,AA12)</f>
         <v>37.9</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="7">
         <v>16</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="7">
         <v>15</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="7">
         <v>8</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="7">
         <v>6</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="7">
         <v>3</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="7">
         <v>5</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="7">
         <v>15</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="7">
         <v>13</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="7">
         <v>5</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="7">
         <v>8</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="7">
         <v>11</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="11">
         <v>11</v>
       </c>
-      <c r="T6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U6" s="2">
+      <c r="T6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="U6" s="8">
         <v>15</v>
       </c>
-      <c r="W6" t="s">
-        <v>42</v>
-      </c>
-      <c r="X6" s="2">
+      <c r="W6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="X6" s="8">
         <v>5</v>
       </c>
-      <c r="Z6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA6" s="2">
+      <c r="Z6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA6" s="8">
         <v>55.5</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="14">
         <f>SUM(U7,X5,AA13)</f>
         <v>50</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="7">
         <v>27</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="7">
         <v>26</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="7">
         <v>13</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="7">
         <v>10</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="7">
         <v>4</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="7">
         <v>8</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="7">
         <v>26</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="7">
         <v>22</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="7">
         <v>8</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="7">
         <v>13</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="7">
         <v>19</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="11">
         <v>19</v>
       </c>
-      <c r="T7" t="s">
-        <v>41</v>
-      </c>
-      <c r="U7" s="2">
+      <c r="T7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="U7" s="8">
         <v>22.5</v>
       </c>
-      <c r="W7" t="s">
-        <v>14</v>
-      </c>
-      <c r="X7" s="2">
+      <c r="W7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="X7" s="8">
         <v>7.9</v>
       </c>
-      <c r="Z7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA7" s="2">
+      <c r="Z7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA7" s="8">
         <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="14">
         <f>SUM(U7,X8,AA13)</f>
         <v>52.9</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="7">
         <v>19</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="7">
         <v>18</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="7">
         <v>9</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="7">
         <v>7</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="7">
         <v>3</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="7">
         <v>6</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="7">
         <v>18</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="7">
         <v>16</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="7">
         <v>6</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="7">
         <v>9</v>
       </c>
-      <c r="O8">
-        <v>14</v>
-      </c>
-      <c r="P8">
-        <v>14</v>
-      </c>
-      <c r="W8" t="s">
-        <v>43</v>
-      </c>
-      <c r="X8" s="2">
+      <c r="O8" s="7">
+        <v>14</v>
+      </c>
+      <c r="P8" s="11">
+        <v>14</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="X8" s="8">
         <v>7.9</v>
       </c>
-      <c r="Z8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA8" s="2">
+      <c r="Z8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA8" s="8">
         <v>100.5</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="14">
         <f>SUM(U6,X7,AA5)</f>
         <v>52.9</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="7">
         <v>31</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="7">
         <v>30</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="7">
         <v>15</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="7">
         <v>12</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="7">
         <v>5</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="7">
         <v>9</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="7">
         <v>30</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="7">
         <v>26</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="7">
         <v>9</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="7">
         <v>15</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="7">
         <v>22</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="11">
         <v>22</v>
       </c>
-      <c r="W9" t="s">
+      <c r="W9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X9" s="8">
         <v>7.9</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Z9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AA9" s="8">
         <v>37.9</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="14">
         <f>SUM(U5,X5,AA5)</f>
         <v>55</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="7">
         <v>17</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="7">
         <v>16</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="7">
         <v>8</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="7">
         <v>7</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="7">
         <v>3</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="7">
         <v>5</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="7">
         <v>16</v>
       </c>
-      <c r="L10">
-        <v>14</v>
-      </c>
-      <c r="M10">
+      <c r="L10" s="7">
+        <v>14</v>
+      </c>
+      <c r="M10" s="7">
         <v>5</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="7">
         <v>8</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="7">
         <v>12</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="11">
         <v>12</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Z10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AA10" s="8">
         <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="14">
         <f>SUM(U5,X6,AA5)</f>
         <v>55</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="7">
         <v>30</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="7">
         <v>29</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="7">
         <v>15</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="7">
         <v>11</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="7">
         <v>4</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="7">
         <v>9</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="7">
         <v>29</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="7">
         <v>25</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="7">
         <v>9</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="7">
         <v>15</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="7">
         <v>22</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="11">
         <v>22</v>
       </c>
-      <c r="Z11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA11" s="2">
+      <c r="Z11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA11" s="8">
         <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="14">
         <f>SUM(U5,X7,AA5)</f>
         <v>57.9</v>
       </c>
-      <c r="E12">
-        <v>14</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="7">
+        <v>14</v>
+      </c>
+      <c r="F12" s="7">
         <v>13</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="7">
         <v>7</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="7">
         <v>5</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="7">
         <v>2</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="7">
         <v>4</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="7">
         <v>13</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="7">
         <v>11</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="7">
         <v>4</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="7">
         <v>7</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="7">
         <v>10</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="11">
         <v>10</v>
       </c>
-      <c r="Z12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA12" s="2">
+      <c r="Z12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA12" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="14">
         <f>SUM(U6,X5,AA9)</f>
         <v>57.9</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="7">
         <v>19</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="7">
         <v>18</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="7">
         <v>9</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="7">
         <v>7</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="7">
         <v>3</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="7">
         <v>6</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="7">
         <v>18</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="7">
         <v>16</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="7">
         <v>6</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="7">
         <v>9</v>
       </c>
-      <c r="O13">
-        <v>14</v>
-      </c>
-      <c r="P13">
-        <v>14</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA13" s="2">
+      <c r="O13" s="7">
+        <v>14</v>
+      </c>
+      <c r="P13" s="11">
+        <v>14</v>
+      </c>
+      <c r="Z13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA13" s="8">
         <v>22.5</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="14">
         <f>SUM(U6,X6,AA9)</f>
         <v>57.9</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="7">
         <v>22</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="7">
         <v>21</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="7">
         <v>11</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="7">
         <v>8</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="7">
         <v>3</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="7">
         <v>6</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="7">
         <v>21</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="7">
         <v>18</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="7">
         <v>6</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="7">
         <v>11</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="7">
         <v>16</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="11">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="14">
         <f>SUM(U6,X9,AA9)</f>
         <v>60.8</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="7">
         <v>25</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="7">
         <v>24</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="7">
         <v>12</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="7">
         <v>10</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="7">
         <v>4</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="7">
         <v>7</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="7">
         <v>24</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="7">
         <v>21</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="7">
         <v>7</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="7">
         <v>12</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="7">
         <v>18</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="11">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="14">
         <f>SUM(U5,X5,AA6)</f>
         <v>80.5</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="7">
         <v>29</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="7">
         <v>28</v>
       </c>
-      <c r="G16">
-        <v>14</v>
-      </c>
-      <c r="H16">
+      <c r="G16" s="7">
+        <v>14</v>
+      </c>
+      <c r="H16" s="7">
         <v>11</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="7">
         <v>4</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="7">
         <v>8</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="7">
         <v>28</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="7">
         <v>24</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="7">
         <v>8</v>
       </c>
-      <c r="N16">
-        <v>14</v>
-      </c>
-      <c r="O16">
+      <c r="N16" s="7">
+        <v>14</v>
+      </c>
+      <c r="O16" s="7">
         <v>21</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="11">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="14">
         <f>SUM(U5,X6,AA6)</f>
         <v>80.5</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="7">
         <v>23</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="7">
         <v>22</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="7">
         <v>11</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="7">
         <v>9</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="7">
         <v>3</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="7">
         <v>7</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="7">
         <v>22</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="7">
         <v>19</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="7">
         <v>7</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="7">
         <v>11</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="7">
         <v>16</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="11">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="14">
         <f>SUM(U6,X7,AA6)</f>
         <v>78.400000000000006</v>
       </c>
-      <c r="E18">
-        <v>14</v>
-      </c>
-      <c r="F18">
+      <c r="E18" s="7">
+        <v>14</v>
+      </c>
+      <c r="F18" s="7">
         <v>13</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="7">
         <v>7</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="7">
         <v>5</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="7">
         <v>2</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="7">
         <v>4</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="7">
         <v>13</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="7">
         <v>11</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="7">
         <v>4</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="7">
         <v>7</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="7">
         <v>10</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="11">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="14">
         <f>SUM(U5,X5,AA8)</f>
         <v>125.5</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="7">
         <v>15</v>
       </c>
-      <c r="F19">
-        <v>14</v>
-      </c>
-      <c r="G19">
+      <c r="F19" s="7">
+        <v>14</v>
+      </c>
+      <c r="G19" s="7">
         <v>7</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="7">
         <v>6</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="7">
         <v>2</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="7">
         <v>4</v>
       </c>
-      <c r="K19">
-        <v>14</v>
-      </c>
-      <c r="L19">
+      <c r="K19" s="7">
+        <v>14</v>
+      </c>
+      <c r="L19" s="7">
         <v>12</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="7">
         <v>4</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="7">
         <v>7</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="7">
         <v>11</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="11">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="14">
         <f>SUM(U5,X5,AA7)</f>
         <v>145</v>
       </c>
-      <c r="E20">
-        <v>14</v>
-      </c>
-      <c r="F20">
+      <c r="E20" s="7">
+        <v>14</v>
+      </c>
+      <c r="F20" s="7">
         <v>13</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="7">
         <v>7</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="7">
         <v>5</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="7">
         <v>2</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="7">
         <v>4</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="7">
         <v>13</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="7">
         <v>11</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="7">
         <v>4</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="7">
         <v>7</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="7">
         <v>10</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="11">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="14">
         <f>SUM(U5,X6,AA7)</f>
         <v>145</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="7">
         <v>29</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="7">
         <v>28</v>
       </c>
-      <c r="G21">
-        <v>14</v>
-      </c>
-      <c r="H21">
+      <c r="G21" s="7">
+        <v>14</v>
+      </c>
+      <c r="H21" s="7">
         <v>11</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="7">
         <v>4</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="7">
         <v>8</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="7">
         <v>28</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="7">
         <v>24</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="7">
         <v>8</v>
       </c>
-      <c r="N21">
-        <v>14</v>
-      </c>
-      <c r="O21">
+      <c r="N21" s="7">
+        <v>14</v>
+      </c>
+      <c r="O21" s="7">
         <v>21</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="11">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="14">
         <f>SUM(U6,X7,AA7)</f>
         <v>142.9</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="7">
         <v>21</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="7">
         <v>20</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="7">
         <v>10</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="7">
         <v>8</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="7">
         <v>3</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="7">
         <v>6</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="7">
         <v>20</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="7">
         <v>17</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="7">
         <v>6</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="7">
         <v>10</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="7">
         <v>15</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="11">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="14">
         <f>SUM(U6,X5,AA11)</f>
         <v>190</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="7">
         <v>30</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="7">
         <v>29</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="7">
         <v>15</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="7">
         <v>11</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="7">
         <v>4</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="7">
         <v>9</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="7">
         <v>29</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="7">
         <v>25</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="7">
         <v>9</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="7">
         <v>15</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="7">
         <v>22</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="11">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="14">
         <f>SUM(U6,X6,AA11)</f>
         <v>190</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="7">
         <v>27</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="7">
         <v>26</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="7">
         <v>13</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="7">
         <v>10</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="7">
         <v>4</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="7">
         <v>8</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="7">
         <v>26</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="7">
         <v>22</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="7">
         <v>8</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="7">
         <v>13</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="7">
         <v>19</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="11">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="14">
         <f>SUM(U6,X7,AA11)</f>
         <v>192.9</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="7">
         <v>20</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="7">
         <v>19</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="7">
         <v>10</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="7">
         <v>8</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="7">
         <v>3</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="7">
         <v>6</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="7">
         <v>19</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="7">
         <v>16</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="7">
         <v>6</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="7">
         <v>10</v>
       </c>
-      <c r="O25">
-        <v>14</v>
-      </c>
-      <c r="P25">
+      <c r="O25" s="7">
+        <v>14</v>
+      </c>
+      <c r="P25" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="14">
         <f>SUM(U5,X5,AA10)</f>
         <v>245</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="7">
         <v>24</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="7">
         <v>23</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="7">
         <v>12</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="7">
         <v>9</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="7">
         <v>4</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="7">
         <v>7</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="7">
         <v>23</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="7">
         <v>20</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="7">
         <v>7</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="7">
         <v>12</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="7">
         <v>17</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="11">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="15">
         <f>SUM(U5,X7,AA10)</f>
         <v>247.9</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="12">
         <v>28</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="12">
         <v>27</v>
       </c>
-      <c r="G27">
-        <v>14</v>
-      </c>
-      <c r="H27">
+      <c r="G27" s="12">
+        <v>14</v>
+      </c>
+      <c r="H27" s="12">
         <v>11</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="12">
         <v>4</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="12">
         <v>8</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="12">
         <v>27</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="12">
         <v>23</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="12">
         <v>8</v>
       </c>
-      <c r="N27">
-        <v>14</v>
-      </c>
-      <c r="O27">
+      <c r="N27" s="12">
+        <v>14</v>
+      </c>
+      <c r="O27" s="12">
         <v>20</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="13">
         <v>20</v>
       </c>
     </row>
